--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.02141</v>
+        <v>13.16239766666667</v>
       </c>
       <c r="H2">
-        <v>51.06423</v>
+        <v>39.487193</v>
       </c>
       <c r="I2">
-        <v>0.6180409958166109</v>
+        <v>0.5184384809583861</v>
       </c>
       <c r="J2">
-        <v>0.6180409958166109</v>
+        <v>0.5184384809583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.09015533333334</v>
+        <v>11.6425</v>
       </c>
       <c r="N2">
-        <v>111.270466</v>
+        <v>34.9275</v>
       </c>
       <c r="O2">
-        <v>0.5716576577489302</v>
+        <v>0.3149027819311015</v>
       </c>
       <c r="P2">
-        <v>0.5716576577489302</v>
+        <v>0.3149027819311015</v>
       </c>
       <c r="Q2">
-        <v>631.3267408923533</v>
+        <v>153.2432148341667</v>
       </c>
       <c r="R2">
-        <v>5681.94066803118</v>
+        <v>1379.1889335075</v>
       </c>
       <c r="S2">
-        <v>0.3533078680613401</v>
+        <v>0.1632577199139302</v>
       </c>
       <c r="T2">
-        <v>0.3533078680613401</v>
+        <v>0.1632577199139302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.02141</v>
+        <v>13.16239766666667</v>
       </c>
       <c r="H3">
-        <v>51.06423</v>
+        <v>39.487193</v>
       </c>
       <c r="I3">
-        <v>0.6180409958166109</v>
+        <v>0.5184384809583861</v>
       </c>
       <c r="J3">
-        <v>0.6180409958166109</v>
+        <v>0.5184384809583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>60.375355</v>
       </c>
       <c r="O3">
-        <v>0.310181445856982</v>
+        <v>0.5443380502348534</v>
       </c>
       <c r="P3">
-        <v>0.310181445856982</v>
+        <v>0.5443380502348534</v>
       </c>
       <c r="Q3">
-        <v>342.5578904501833</v>
+        <v>264.8948105920572</v>
       </c>
       <c r="R3">
-        <v>3083.02101405165</v>
+        <v>2384.053295328515</v>
       </c>
       <c r="S3">
-        <v>0.1917048496812853</v>
+        <v>0.282205791891607</v>
       </c>
       <c r="T3">
-        <v>0.1917048496812853</v>
+        <v>0.282205791891607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.02141</v>
+        <v>13.16239766666667</v>
       </c>
       <c r="H4">
-        <v>51.06423</v>
+        <v>39.487193</v>
       </c>
       <c r="I4">
-        <v>0.6180409958166109</v>
+        <v>0.5184384809583861</v>
       </c>
       <c r="J4">
-        <v>0.6180409958166109</v>
+        <v>0.5184384809583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.666487</v>
+        <v>5.204109666666667</v>
       </c>
       <c r="N4">
-        <v>22.999461</v>
+        <v>15.612329</v>
       </c>
       <c r="O4">
-        <v>0.1181608963940878</v>
+        <v>0.1407591678340452</v>
       </c>
       <c r="P4">
-        <v>0.1181608963940878</v>
+        <v>0.1407591678340452</v>
       </c>
       <c r="Q4">
-        <v>130.49441848667</v>
+        <v>68.49856093361079</v>
       </c>
       <c r="R4">
-        <v>1174.44976638003</v>
+        <v>616.4870484024971</v>
       </c>
       <c r="S4">
-        <v>0.0730282780739854</v>
+        <v>0.07297496915284889</v>
       </c>
       <c r="T4">
-        <v>0.07302827807398539</v>
+        <v>0.07297496915284889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>26.53206</v>
       </c>
       <c r="I5">
-        <v>0.3211230402077163</v>
+        <v>0.3483468901701054</v>
       </c>
       <c r="J5">
-        <v>0.3211230402077162</v>
+        <v>0.3483468901701054</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.09015533333334</v>
+        <v>11.6425</v>
       </c>
       <c r="N5">
-        <v>111.270466</v>
+        <v>34.9275</v>
       </c>
       <c r="O5">
-        <v>0.5716576577489302</v>
+        <v>0.3149027819311015</v>
       </c>
       <c r="P5">
-        <v>0.5716576577489302</v>
+        <v>0.3149027819311015</v>
       </c>
       <c r="Q5">
-        <v>328.0260755711067</v>
+        <v>102.96650285</v>
       </c>
       <c r="R5">
-        <v>2952.23468013996</v>
+        <v>926.6985256500001</v>
       </c>
       <c r="S5">
-        <v>0.1835724450143586</v>
+        <v>0.1096954047916141</v>
       </c>
       <c r="T5">
-        <v>0.1835724450143586</v>
+        <v>0.1096954047916141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>26.53206</v>
       </c>
       <c r="I6">
-        <v>0.3211230402077163</v>
+        <v>0.3483468901701054</v>
       </c>
       <c r="J6">
-        <v>0.3211230402077162</v>
+        <v>0.3483468901701054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>60.375355</v>
       </c>
       <c r="O6">
-        <v>0.310181445856982</v>
+        <v>0.5443380502348534</v>
       </c>
       <c r="P6">
-        <v>0.310181445856982</v>
+        <v>0.5443380502348534</v>
       </c>
       <c r="Q6">
         <v>177.9869490423667</v>
@@ -818,10 +818,10 @@
         <v>1601.8825413813</v>
       </c>
       <c r="S6">
-        <v>0.09960640890961921</v>
+        <v>0.1896184670005698</v>
       </c>
       <c r="T6">
-        <v>0.09960640890961919</v>
+        <v>0.1896184670005698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>26.53206</v>
       </c>
       <c r="I7">
-        <v>0.3211230402077163</v>
+        <v>0.3483468901701054</v>
       </c>
       <c r="J7">
-        <v>0.3211230402077162</v>
+        <v>0.3483468901701054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.666487</v>
+        <v>5.204109666666667</v>
       </c>
       <c r="N7">
-        <v>22.999461</v>
+        <v>15.612329</v>
       </c>
       <c r="O7">
-        <v>0.1181608963940878</v>
+        <v>0.1407591678340452</v>
       </c>
       <c r="P7">
-        <v>0.1181608963940878</v>
+        <v>0.1407591678340452</v>
       </c>
       <c r="Q7">
-        <v>67.80256435774001</v>
+        <v>46.02524997419334</v>
       </c>
       <c r="R7">
-        <v>610.22307921966</v>
+        <v>414.22724976774</v>
       </c>
       <c r="S7">
-        <v>0.03794418628373845</v>
+        <v>0.04903301837792156</v>
       </c>
       <c r="T7">
-        <v>0.03794418628373844</v>
+        <v>0.04903301837792157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.675477666666667</v>
+        <v>3.382125333333333</v>
       </c>
       <c r="H8">
-        <v>5.026433</v>
+        <v>10.146376</v>
       </c>
       <c r="I8">
-        <v>0.06083596397567289</v>
+        <v>0.1332146288715084</v>
       </c>
       <c r="J8">
-        <v>0.06083596397567288</v>
+        <v>0.1332146288715084</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.09015533333334</v>
+        <v>11.6425</v>
       </c>
       <c r="N8">
-        <v>111.270466</v>
+        <v>34.9275</v>
       </c>
       <c r="O8">
-        <v>0.5716576577489302</v>
+        <v>0.3149027819311015</v>
       </c>
       <c r="P8">
-        <v>0.5716576577489302</v>
+        <v>0.3149027819311015</v>
       </c>
       <c r="Q8">
-        <v>62.14372691419756</v>
+        <v>39.37639419333333</v>
       </c>
       <c r="R8">
-        <v>559.2935422277779</v>
+        <v>354.38754774</v>
       </c>
       <c r="S8">
-        <v>0.03477734467323146</v>
+        <v>0.04194965722555723</v>
       </c>
       <c r="T8">
-        <v>0.03477734467323145</v>
+        <v>0.04194965722555724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.675477666666667</v>
+        <v>3.382125333333333</v>
       </c>
       <c r="H9">
-        <v>5.026433</v>
+        <v>10.146376</v>
       </c>
       <c r="I9">
-        <v>0.06083596397567289</v>
+        <v>0.1332146288715084</v>
       </c>
       <c r="J9">
-        <v>0.06083596397567288</v>
+        <v>0.1332146288715084</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>60.375355</v>
       </c>
       <c r="O9">
-        <v>0.310181445856982</v>
+        <v>0.5443380502348534</v>
       </c>
       <c r="P9">
-        <v>0.310181445856982</v>
+        <v>0.5443380502348534</v>
       </c>
       <c r="Q9">
-        <v>33.71918630652389</v>
+        <v>68.06567255149777</v>
       </c>
       <c r="R9">
-        <v>303.472676758715</v>
+        <v>612.59105296348</v>
       </c>
       <c r="S9">
-        <v>0.01887018726607749</v>
+        <v>0.07251379134267649</v>
       </c>
       <c r="T9">
-        <v>0.01887018726607749</v>
+        <v>0.07251379134267651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.675477666666667</v>
+        <v>3.382125333333333</v>
       </c>
       <c r="H10">
-        <v>5.026433</v>
+        <v>10.146376</v>
       </c>
       <c r="I10">
-        <v>0.06083596397567289</v>
+        <v>0.1332146288715084</v>
       </c>
       <c r="J10">
-        <v>0.06083596397567288</v>
+        <v>0.1332146288715084</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.666487</v>
+        <v>5.204109666666667</v>
       </c>
       <c r="N10">
-        <v>22.999461</v>
+        <v>15.612329</v>
       </c>
       <c r="O10">
-        <v>0.1181608963940878</v>
+        <v>0.1407591678340452</v>
       </c>
       <c r="P10">
-        <v>0.1181608963940878</v>
+        <v>0.1407591678340452</v>
       </c>
       <c r="Q10">
-        <v>12.84502775029033</v>
+        <v>17.60095114107822</v>
       </c>
       <c r="R10">
-        <v>115.605249752613</v>
+        <v>158.408560269704</v>
       </c>
       <c r="S10">
-        <v>0.007188432036363941</v>
+        <v>0.01875118030327469</v>
       </c>
       <c r="T10">
-        <v>0.007188432036363939</v>
+        <v>0.01875118030327469</v>
       </c>
     </row>
   </sheetData>
